--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1139583.460138022</v>
+        <v>1166741.298846971</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.0964539</v>
+        <v>5562152.400446145</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5050599.152668072</v>
+        <v>4028287.523710871</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7404003.543106943</v>
+        <v>7828284.986774279</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
@@ -668,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>305.0021285734754</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>13.42716473358955</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -722,10 +724,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>148.6428445667667</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -871,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -899,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>202.0113368150512</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -908,13 +910,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>89.10505605286849</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -962,7 +964,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,16 +1056,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>112.1027016460446</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>271.0640515220194</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>388.0312620857619</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -1187,19 +1189,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>290.9580860204844</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>98.9457413571089</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,16 +1347,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -1382,7 +1384,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>141.9872840723883</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -1430,13 +1432,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>212.5238494012358</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>28.01490760909629</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>143.840129933826</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -1588,13 +1590,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,16 +1615,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>369.0970882577166</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>9.429415269309622</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1858,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>347.730837880977</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2004,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>149.3339408773904</v>
+        <v>27.77250173713465</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2062,13 +2064,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9184445944652</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>158.3449400448986</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2251,10 +2253,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>27.35334490128935</v>
       </c>
       <c r="Y22" t="n">
-        <v>141.8498522607685</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2369,16 +2371,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>283.7777510779965</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.5330887295194</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -2527,22 +2529,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>136.1769805884533</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>43.42340976889702</v>
+        <v>311.8478483792496</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2573,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>18.16833582460248</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>27.35334490128935</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2804,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,10 +2845,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.7315525093739</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -2965,10 +2967,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>27.35334490128935</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>183.0513514827122</v>
       </c>
       <c r="C32" t="n">
-        <v>360.466525206183</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -3047,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
@@ -3095,7 +3097,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>109.8855713399416</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,16 +3246,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>213.595211067239</v>
       </c>
     </row>
     <row r="35">
@@ -3272,10 +3274,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>384.5327953590509</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -3284,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>39.93142548241784</v>
       </c>
     </row>
     <row r="36">
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
@@ -3487,10 +3489,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>180.6077930059077</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V38" t="n">
-        <v>158.3449400448986</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>145.0002589579186</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,16 +3717,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>180.6077930059089</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>369.8690329627668</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>177.2025214216861</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3803,10 +3805,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -3907,13 +3909,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>126.2672191006953</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -3946,13 +3948,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>165.421695385058</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4037,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>338.1753487462612</v>
       </c>
       <c r="X44" t="n">
-        <v>0.9202602248441235</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4138,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>265.5812320794434</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1702.934458394687</v>
+        <v>1605.11568008316</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.809867707957</v>
+        <v>1194.99108939643</v>
       </c>
       <c r="D2" t="n">
-        <v>888.3459378010175</v>
+        <v>790.5271594894907</v>
       </c>
       <c r="E2" t="n">
-        <v>888.3459378010175</v>
+        <v>790.5271594894907</v>
       </c>
       <c r="F2" t="n">
-        <v>467.315525754705</v>
+        <v>790.5271594894907</v>
       </c>
       <c r="G2" t="n">
-        <v>58.5872416475372</v>
+        <v>381.7988753823229</v>
       </c>
       <c r="H2" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K2" t="n">
-        <v>596.7467427565767</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L2" t="n">
-        <v>1309.338142568815</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M2" t="n">
-        <v>1883.183960193295</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N2" t="n">
-        <v>2608.201075581568</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O2" t="n">
-        <v>2608.201075581568</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P2" t="n">
-        <v>2608.201075581568</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q2" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S2" t="n">
-        <v>2915.799289716669</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T2" t="n">
-        <v>2693.592805663528</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U2" t="n">
-        <v>2436.532313923038</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="V2" t="n">
-        <v>2086.694759259518</v>
+        <v>3200.677231495439</v>
       </c>
       <c r="W2" t="n">
-        <v>1702.934458394687</v>
+        <v>2816.916930630607</v>
       </c>
       <c r="X2" t="n">
-        <v>1702.934458394687</v>
+        <v>2416.27353279956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1702.934458394687</v>
+        <v>2015.33685974765</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C3" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D3" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E3" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F3" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G3" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H3" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I3" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J3" t="n">
-        <v>251.4000992101705</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K3" t="n">
-        <v>707.2063554754692</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L3" t="n">
-        <v>1030.214857425781</v>
+        <v>715.5221398947006</v>
       </c>
       <c r="M3" t="n">
-        <v>1030.214857425781</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="N3" t="n">
-        <v>1755.231972814054</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="O3" t="n">
-        <v>1755.231972814054</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="P3" t="n">
-        <v>1755.231972814054</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q3" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R3" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S3" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T3" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U3" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V3" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W3" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X3" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y3" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>806.5665471427982</v>
+        <v>1163.049767528434</v>
       </c>
       <c r="C4" t="n">
-        <v>806.5665471427982</v>
+        <v>991.9563950901502</v>
       </c>
       <c r="D4" t="n">
-        <v>806.5665471427982</v>
+        <v>832.4617504130601</v>
       </c>
       <c r="E4" t="n">
-        <v>656.4222597016197</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F4" t="n">
-        <v>491.791133812211</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G4" t="n">
-        <v>324.5407427377544</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H4" t="n">
-        <v>174.9332875432111</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U4" t="n">
-        <v>1305.187990814512</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V4" t="n">
-        <v>1031.302245754033</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="W4" t="n">
-        <v>1031.302245754033</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="X4" t="n">
-        <v>1031.302245754033</v>
+        <v>1575.485172533713</v>
       </c>
       <c r="Y4" t="n">
-        <v>806.5665471427982</v>
+        <v>1350.749473922478</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>893.957869176953</v>
+        <v>1919.126944287828</v>
       </c>
       <c r="C5" t="n">
-        <v>893.957869176953</v>
+        <v>1919.126944287828</v>
       </c>
       <c r="D5" t="n">
-        <v>893.957869176953</v>
+        <v>1715.075088919089</v>
       </c>
       <c r="E5" t="n">
-        <v>479.6176536938497</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="F5" t="n">
-        <v>58.5872416475372</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G5" t="n">
-        <v>58.5872416475372</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H5" t="n">
-        <v>58.5872416475372</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J5" t="n">
-        <v>82.5489496814065</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K5" t="n">
-        <v>82.5489496814065</v>
+        <v>593.3871492078035</v>
       </c>
       <c r="L5" t="n">
-        <v>795.1403494936445</v>
+        <v>1305.978549020042</v>
       </c>
       <c r="M5" t="n">
-        <v>1520.157464881917</v>
+        <v>2082.297140011795</v>
       </c>
       <c r="N5" t="n">
-        <v>2245.17458027019</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="O5" t="n">
-        <v>2888.805436687295</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P5" t="n">
-        <v>2888.805436687295</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q5" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T5" t="n">
-        <v>2929.36208237686</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="U5" t="n">
-        <v>2839.356975252751</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="V5" t="n">
-        <v>2489.519420589231</v>
+        <v>3113.751822648197</v>
       </c>
       <c r="W5" t="n">
-        <v>2105.7591197244</v>
+        <v>2729.991521783365</v>
       </c>
       <c r="X5" t="n">
-        <v>1705.115721893352</v>
+        <v>2329.348123952318</v>
       </c>
       <c r="Y5" t="n">
-        <v>1304.179048841442</v>
+        <v>2329.348123952318</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>2318.137507400892</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>2184.142436149837</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>2067.24527836923</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>1946.752462361558</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>1837.792582544062</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>1730.802469858401</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>1660.055256894117</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="J6" t="n">
-        <v>58.5872416475372</v>
+        <v>1832.11952307699</v>
       </c>
       <c r="K6" t="n">
-        <v>514.3934979128359</v>
+        <v>1832.11952307699</v>
       </c>
       <c r="L6" t="n">
-        <v>514.3934979128359</v>
+        <v>1832.11952307699</v>
       </c>
       <c r="M6" t="n">
-        <v>1051.274882268159</v>
+        <v>2675.096603771557</v>
       </c>
       <c r="N6" t="n">
-        <v>1051.274882268159</v>
+        <v>2675.096603771557</v>
       </c>
       <c r="O6" t="n">
-        <v>1755.231972814054</v>
+        <v>3379.053694317451</v>
       </c>
       <c r="P6" t="n">
-        <v>1755.231972814054</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q6" t="n">
-        <v>2105.076437498037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>3577.805851479166</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>3418.463987666174</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>3221.113176804393</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>3007.401649797427</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>2794.168481533755</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>2617.842499672648</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>2458.440540036478</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>663.3211260623131</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C7" t="n">
-        <v>492.2277536240296</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D7" t="n">
-        <v>332.7331089469396</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E7" t="n">
-        <v>171.8222938152591</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1587.986138268387</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S7" t="n">
-        <v>1587.986138268387</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T7" t="n">
-        <v>1587.986138268387</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U7" t="n">
-        <v>1587.986138268387</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V7" t="n">
-        <v>1314.100393207909</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W7" t="n">
-        <v>1314.100393207909</v>
+        <v>261.4156236213415</v>
       </c>
       <c r="X7" t="n">
-        <v>1075.756531067593</v>
+        <v>261.4156236213415</v>
       </c>
       <c r="Y7" t="n">
-        <v>851.0208324563574</v>
+        <v>261.4156236213415</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1270.436022296416</v>
+        <v>2517.150449389417</v>
       </c>
       <c r="C8" t="n">
-        <v>860.3114316096855</v>
+        <v>2107.025858702687</v>
       </c>
       <c r="D8" t="n">
-        <v>455.8475017027461</v>
+        <v>1715.075088919089</v>
       </c>
       <c r="E8" t="n">
-        <v>455.8475017027461</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="F8" t="n">
-        <v>455.8475017027461</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G8" t="n">
-        <v>455.8475017027461</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H8" t="n">
-        <v>144.9390043304641</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L8" t="n">
-        <v>771.1786414597752</v>
+        <v>662.3476926029365</v>
       </c>
       <c r="M8" t="n">
-        <v>1496.195756848048</v>
+        <v>1438.66628359469</v>
       </c>
       <c r="N8" t="n">
-        <v>2221.212872236321</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="O8" t="n">
-        <v>2864.843728653426</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P8" t="n">
-        <v>2888.805436687295</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q8" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>2794.081007170961</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T8" t="n">
-        <v>2571.87452311782</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U8" t="n">
-        <v>2314.81403137733</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="V8" t="n">
-        <v>1964.976476713811</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="W8" t="n">
-        <v>1671.079420127463</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="X8" t="n">
-        <v>1270.436022296416</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="Y8" t="n">
-        <v>1270.436022296416</v>
+        <v>2927.371629053907</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L9" t="n">
-        <v>676.1022315638701</v>
+        <v>403.5699402716127</v>
       </c>
       <c r="M9" t="n">
-        <v>1401.119346952143</v>
+        <v>1246.547020966179</v>
       </c>
       <c r="N9" t="n">
-        <v>1401.119346952143</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="O9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1076.772912800399</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C10" t="n">
-        <v>976.8277195103904</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D10" t="n">
-        <v>817.3330748333003</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E10" t="n">
-        <v>656.4222597016197</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F10" t="n">
-        <v>491.791133812211</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G10" t="n">
-        <v>324.5407427377544</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H10" t="n">
-        <v>174.9332875432111</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R10" t="n">
-        <v>1502.713419943787</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S10" t="n">
-        <v>1316.321651823697</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T10" t="n">
-        <v>1076.772912800399</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U10" t="n">
-        <v>1076.772912800399</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V10" t="n">
-        <v>1076.772912800399</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W10" t="n">
-        <v>1076.772912800399</v>
+        <v>256.1480313746799</v>
       </c>
       <c r="X10" t="n">
-        <v>1076.772912800399</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="Y10" t="n">
-        <v>1076.772912800399</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1707.15008319106</v>
+        <v>1723.675065350382</v>
       </c>
       <c r="C11" t="n">
-        <v>1707.15008319106</v>
+        <v>1313.550474663652</v>
       </c>
       <c r="D11" t="n">
-        <v>1302.686153284121</v>
+        <v>909.0865447567129</v>
       </c>
       <c r="E11" t="n">
-        <v>888.3459378010175</v>
+        <v>494.7463292736096</v>
       </c>
       <c r="F11" t="n">
-        <v>467.315525754705</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K11" t="n">
-        <v>58.5872416475372</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L11" t="n">
-        <v>771.1786414597752</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M11" t="n">
-        <v>1496.195756848048</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N11" t="n">
-        <v>2221.212872236321</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O11" t="n">
-        <v>2864.843728653426</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P11" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q11" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T11" t="n">
-        <v>2929.36208237686</v>
+        <v>3542.374362301839</v>
       </c>
       <c r="U11" t="n">
-        <v>2672.30159063637</v>
+        <v>3285.313870561349</v>
       </c>
       <c r="V11" t="n">
-        <v>2322.464035972851</v>
+        <v>2935.476315897829</v>
       </c>
       <c r="W11" t="n">
-        <v>2107.793481022108</v>
+        <v>2935.476315897829</v>
       </c>
       <c r="X11" t="n">
-        <v>1707.15008319106</v>
+        <v>2534.832918066782</v>
       </c>
       <c r="Y11" t="n">
-        <v>1707.15008319106</v>
+        <v>2133.896245014872</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K12" t="n">
-        <v>514.3934979128359</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L12" t="n">
-        <v>514.3934979128359</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="M12" t="n">
-        <v>1239.410613301109</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="N12" t="n">
-        <v>1543.370545009507</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="O12" t="n">
-        <v>1543.370545009507</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.5872416475372</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="C13" t="n">
-        <v>58.5872416475372</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="D13" t="n">
-        <v>58.5872416475372</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="E13" t="n">
-        <v>58.5872416475372</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="F13" t="n">
-        <v>58.5872416475372</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G13" t="n">
-        <v>58.5872416475372</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H13" t="n">
-        <v>58.5872416475372</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1502.713419943787</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S13" t="n">
-        <v>1502.713419943787</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T13" t="n">
-        <v>1357.420359404569</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U13" t="n">
-        <v>1074.622211950693</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V13" t="n">
-        <v>800.7364668902148</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W13" t="n">
-        <v>521.6668023990892</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="X13" t="n">
-        <v>283.3229402587725</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="Y13" t="n">
-        <v>58.5872416475372</v>
+        <v>535.2176958658056</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2126.799335765982</v>
+        <v>1261.129779495428</v>
       </c>
       <c r="C14" t="n">
-        <v>1716.674745079252</v>
+        <v>851.0051888086979</v>
       </c>
       <c r="D14" t="n">
-        <v>1312.210815172312</v>
+        <v>446.5412589017584</v>
       </c>
       <c r="E14" t="n">
-        <v>897.870599689209</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F14" t="n">
-        <v>476.8401876428966</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G14" t="n">
-        <v>68.11190353572874</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K14" t="n">
-        <v>58.5872416475372</v>
+        <v>230.3606538964251</v>
       </c>
       <c r="L14" t="n">
-        <v>771.1786414597752</v>
+        <v>942.9520537086631</v>
       </c>
       <c r="M14" t="n">
-        <v>1496.195756848048</v>
+        <v>1719.270644700417</v>
       </c>
       <c r="N14" t="n">
-        <v>2221.212872236321</v>
+        <v>2472.451661339035</v>
       </c>
       <c r="O14" t="n">
-        <v>2864.843728653426</v>
+        <v>3116.08251775614</v>
       </c>
       <c r="P14" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q14" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S14" t="n">
-        <v>2794.081007170961</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T14" t="n">
-        <v>2794.081007170961</v>
+        <v>3463.589377311715</v>
       </c>
       <c r="U14" t="n">
-        <v>2537.020515430471</v>
+        <v>3206.528885571226</v>
       </c>
       <c r="V14" t="n">
-        <v>2537.020515430471</v>
+        <v>2856.691330907706</v>
       </c>
       <c r="W14" t="n">
-        <v>2537.020515430471</v>
+        <v>2472.931030042875</v>
       </c>
       <c r="X14" t="n">
-        <v>2537.020515430471</v>
+        <v>2072.287632211827</v>
       </c>
       <c r="Y14" t="n">
-        <v>2537.020515430471</v>
+        <v>1671.350959159917</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M15" t="n">
-        <v>676.1022315638701</v>
+        <v>542.5899304202851</v>
       </c>
       <c r="N15" t="n">
-        <v>1401.119346952143</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1147.921091948674</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C16" t="n">
-        <v>976.8277195103904</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D16" t="n">
-        <v>817.3330748333003</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E16" t="n">
-        <v>656.4222597016197</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F16" t="n">
-        <v>491.791133812211</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G16" t="n">
-        <v>324.5407427377544</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H16" t="n">
-        <v>174.9332875432111</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1587.986138268387</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S16" t="n">
-        <v>1587.986138268387</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T16" t="n">
-        <v>1587.986138268387</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U16" t="n">
-        <v>1587.986138268387</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V16" t="n">
-        <v>1587.986138268387</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.986138268387</v>
+        <v>256.1480313746799</v>
       </c>
       <c r="X16" t="n">
-        <v>1560.356496953953</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="Y16" t="n">
-        <v>1335.620798342718</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2151.931129920876</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>1741.806539234146</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>1337.342609327206</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E17" t="n">
-        <v>923.0023938441032</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F17" t="n">
-        <v>501.9719817977906</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G17" t="n">
         <v>93.2436976906228</v>
@@ -5558,7 +5560,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2562.152309585365</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5598,13 +5600,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>562.1177108836107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>415.1794346515229</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="C19" t="n">
-        <v>244.0860622132394</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="D19" t="n">
-        <v>244.0860622132394</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="E19" t="n">
-        <v>244.0860622132394</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="F19" t="n">
         <v>93.2436976906228</v>
@@ -5701,22 +5703,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1339.844446857597</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1065.958701797119</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>1065.958701797119</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>827.6148396568026</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>602.8791410455673</v>
+        <v>308.996436142379</v>
       </c>
     </row>
     <row r="20">
@@ -5777,13 +5779,13 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4494.590496051882</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V20" t="n">
         <v>4144.752941388363</v>
@@ -5835,13 +5837,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>1597.308950304478</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
-        <v>2139.732893541123</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>865.7197017227595</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="C22" t="n">
-        <v>694.626329284476</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D22" t="n">
-        <v>535.131684607386</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E22" t="n">
-        <v>374.2208694757054</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F22" t="n">
-        <v>209.5897435862967</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G22" t="n">
-        <v>209.5897435862967</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J22" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K22" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L22" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M22" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N22" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O22" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S22" t="n">
-        <v>1436.250826191383</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T22" t="n">
-        <v>1196.702087168085</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U22" t="n">
-        <v>1196.702087168085</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V22" t="n">
-        <v>1196.702087168085</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W22" t="n">
-        <v>1196.702087168085</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="X22" t="n">
-        <v>1196.702087168085</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1053.419408116804</v>
+        <v>4409.819544605471</v>
       </c>
     </row>
     <row r="23">
@@ -5987,7 +5989,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6017,13 +6019,13 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4144.752941388363</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="W23" t="n">
         <v>3760.992640523532</v>
@@ -6075,13 +6077,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>847.172744764422</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="C25" t="n">
-        <v>847.172744764422</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="D25" t="n">
-        <v>847.172744764422</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="E25" t="n">
-        <v>691.0787157447054</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F25" t="n">
-        <v>526.4475898552967</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G25" t="n">
-        <v>359.19719878084</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S25" t="n">
-        <v>1350.978107866783</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T25" t="n">
-        <v>1350.978107866783</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U25" t="n">
-        <v>1350.978107866783</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V25" t="n">
-        <v>1350.978107866783</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="W25" t="n">
-        <v>1071.908443375657</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="X25" t="n">
-        <v>1071.908443375657</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="Y25" t="n">
-        <v>847.172744764422</v>
+        <v>3730.621005964372</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D26" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6308,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>1210.13812587521</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.13812587521</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N27" t="n">
-        <v>1210.13812587521</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6358,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4222.119838211426</v>
+        <v>4069.378320141428</v>
       </c>
       <c r="C28" t="n">
         <v>4051.026465773143</v>
@@ -6406,28 +6408,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S28" t="n">
-        <v>4662.18488453114</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="T28" t="n">
-        <v>4662.18488453114</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="U28" t="n">
-        <v>4662.18488453114</v>
+        <v>4294.114018752663</v>
       </c>
       <c r="V28" t="n">
-        <v>4662.18488453114</v>
+        <v>4294.114018752663</v>
       </c>
       <c r="W28" t="n">
-        <v>4662.18488453114</v>
+        <v>4294.114018752663</v>
       </c>
       <c r="X28" t="n">
-        <v>4634.555243216706</v>
+        <v>4294.114018752663</v>
       </c>
       <c r="Y28" t="n">
-        <v>4409.819544605471</v>
+        <v>4069.378320141428</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K29" t="n">
         <v>885.5886702674165</v>
@@ -6491,22 +6493,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6546,13 +6548,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.6240469015422</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="C31" t="n">
-        <v>745.5306744632587</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D31" t="n">
-        <v>586.0360297861687</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E31" t="n">
-        <v>425.1252146544881</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F31" t="n">
-        <v>260.4940887650794</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J31" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K31" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L31" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M31" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N31" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O31" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P31" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="T31" t="n">
-        <v>1350.978107866783</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="U31" t="n">
-        <v>1350.978107866783</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="V31" t="n">
-        <v>1350.978107866783</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="W31" t="n">
-        <v>1071.908443375657</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="X31" t="n">
-        <v>1071.908443375657</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1071.908443375657</v>
+        <v>4409.819544605471</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2503.174400507722</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K32" t="n">
         <v>885.5886702674165</v>
@@ -6725,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y32" t="n">
-        <v>2913.395580172211</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C33" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D33" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E33" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F33" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G33" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H33" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J33" t="n">
-        <v>286.056555253256</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="K33" t="n">
-        <v>741.8628115185547</v>
+        <v>3264.314802508572</v>
       </c>
       <c r="L33" t="n">
-        <v>741.8628115185547</v>
+        <v>3721.075007995997</v>
       </c>
       <c r="M33" t="n">
-        <v>741.8628115185547</v>
+        <v>3721.075007995997</v>
       </c>
       <c r="N33" t="n">
-        <v>1615.520903630173</v>
+        <v>3721.075007995997</v>
       </c>
       <c r="O33" t="n">
-        <v>1789.888428857139</v>
+        <v>3721.075007995997</v>
       </c>
       <c r="P33" t="n">
-        <v>1789.888428857139</v>
+        <v>4282.780900484527</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>4632.62536516851</v>
       </c>
       <c r="R33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S33" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T33" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U33" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V33" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W33" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X33" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y33" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>674.2521392999383</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C34" t="n">
-        <v>674.2521392999383</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D34" t="n">
-        <v>514.7574946228483</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E34" t="n">
-        <v>353.8466794911678</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F34" t="n">
-        <v>353.8466794911678</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G34" t="n">
-        <v>353.8466794911678</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H34" t="n">
-        <v>204.2392242966244</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J34" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K34" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L34" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M34" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N34" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O34" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T34" t="n">
-        <v>1383.093855288175</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="U34" t="n">
-        <v>1100.295707834299</v>
+        <v>4139.837998053967</v>
       </c>
       <c r="V34" t="n">
-        <v>1100.295707834299</v>
+        <v>3865.952252993488</v>
       </c>
       <c r="W34" t="n">
-        <v>1100.295707834299</v>
+        <v>3586.882588502363</v>
       </c>
       <c r="X34" t="n">
-        <v>861.9518456939827</v>
+        <v>3348.538726362046</v>
       </c>
       <c r="Y34" t="n">
-        <v>861.9518456939827</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1287.649206862142</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6980,7 +6982,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -7020,13 +7022,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>3868.173511609275</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>3594.287766548796</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>3315.218102057671</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>3132.785987910289</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629049</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="I38" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J38" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.2436976906228</v>
+        <v>837.543623783007</v>
       </c>
       <c r="C40" t="n">
-        <v>93.2436976906228</v>
+        <v>837.543623783007</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>837.543623783007</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7363,19 +7365,19 @@
         <v>1111.429368843485</v>
       </c>
       <c r="U40" t="n">
-        <v>828.6312213896092</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V40" t="n">
-        <v>554.7454763291312</v>
+        <v>837.543623783007</v>
       </c>
       <c r="W40" t="n">
-        <v>275.6758118380055</v>
+        <v>837.543623783007</v>
       </c>
       <c r="X40" t="n">
-        <v>93.2436976906228</v>
+        <v>837.543623783007</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.2436976906228</v>
+        <v>837.543623783007</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1137.123664225062</v>
+        <v>2443.311846829832</v>
       </c>
       <c r="C41" t="n">
-        <v>1137.123664225062</v>
+        <v>2033.187256143102</v>
       </c>
       <c r="D41" t="n">
-        <v>732.6597343181229</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="E41" t="n">
-        <v>732.6597343181229</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F41" t="n">
-        <v>553.6672884376319</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G41" t="n">
-        <v>144.9390043304641</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H41" t="n">
-        <v>144.9390043304641</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J41" t="n">
-        <v>312.7727131152915</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K41" t="n">
-        <v>312.7727131152915</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L41" t="n">
-        <v>312.7727131152915</v>
+        <v>662.347692602936</v>
       </c>
       <c r="M41" t="n">
-        <v>669.8397601674739</v>
+        <v>1438.66628359469</v>
       </c>
       <c r="N41" t="n">
-        <v>1394.856875555747</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="O41" t="n">
-        <v>2038.487731972852</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P41" t="n">
-        <v>2567.644429892003</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q41" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S41" t="n">
-        <v>2929.36208237686</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T41" t="n">
-        <v>2929.36208237686</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U41" t="n">
-        <v>2672.30159063637</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="V41" t="n">
-        <v>2322.464035972851</v>
+        <v>3200.677231495438</v>
       </c>
       <c r="W41" t="n">
-        <v>1938.70373510802</v>
+        <v>2816.916930630607</v>
       </c>
       <c r="X41" t="n">
-        <v>1538.060337276972</v>
+        <v>2816.916930630607</v>
       </c>
       <c r="Y41" t="n">
-        <v>1137.123664225062</v>
+        <v>2816.916930630607</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>2318.137507400891</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>2184.142436149837</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>2067.245278369229</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>1946.752462361557</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>1837.792582544062</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>1730.8024698584</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>1660.055256894116</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>1832.11952307699</v>
       </c>
       <c r="K42" t="n">
-        <v>58.5872416475372</v>
+        <v>2287.925779342288</v>
       </c>
       <c r="L42" t="n">
-        <v>58.5872416475372</v>
+        <v>2744.685984829713</v>
       </c>
       <c r="M42" t="n">
-        <v>783.60435703581</v>
+        <v>2744.685984829713</v>
       </c>
       <c r="N42" t="n">
-        <v>1508.621472424083</v>
+        <v>2744.685984829713</v>
       </c>
       <c r="O42" t="n">
-        <v>2105.076437498037</v>
+        <v>2744.685984829713</v>
       </c>
       <c r="P42" t="n">
-        <v>2105.076437498037</v>
+        <v>3306.391877318243</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>3656.236342002227</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>3577.805851479166</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>3418.463987666174</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>3221.113176804392</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>3007.401649797426</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>2794.168481533755</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>2617.842499672648</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>2458.440540036478</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1147.921091948674</v>
+        <v>2891.784488442993</v>
       </c>
       <c r="C43" t="n">
-        <v>976.8277195103904</v>
+        <v>2720.691116004709</v>
       </c>
       <c r="D43" t="n">
-        <v>817.3330748333003</v>
+        <v>2561.196471327619</v>
       </c>
       <c r="E43" t="n">
-        <v>656.4222597016197</v>
+        <v>2400.285656195939</v>
       </c>
       <c r="F43" t="n">
-        <v>491.791133812211</v>
+        <v>2400.285656195939</v>
       </c>
       <c r="G43" t="n">
-        <v>324.5407427377544</v>
+        <v>2400.285656195939</v>
       </c>
       <c r="H43" t="n">
-        <v>174.9332875432111</v>
+        <v>2272.743010639681</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744007</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>2170.479514149218</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>2325.031841871456</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>2584.928942151516</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>2874.192998592009</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>3155.031780986259</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>3414.592391312734</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>3620.267831562346</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R43" t="n">
-        <v>1502.713419943787</v>
+        <v>3600.523143040256</v>
       </c>
       <c r="S43" t="n">
-        <v>1335.620798342718</v>
+        <v>3414.131374920167</v>
       </c>
       <c r="T43" t="n">
-        <v>1335.620798342718</v>
+        <v>3174.582635896869</v>
       </c>
       <c r="U43" t="n">
-        <v>1335.620798342718</v>
+        <v>2891.784488442993</v>
       </c>
       <c r="V43" t="n">
-        <v>1335.620798342718</v>
+        <v>2891.784488442993</v>
       </c>
       <c r="W43" t="n">
-        <v>1335.620798342718</v>
+        <v>2891.784488442993</v>
       </c>
       <c r="X43" t="n">
-        <v>1335.620798342718</v>
+        <v>2891.784488442993</v>
       </c>
       <c r="Y43" t="n">
-        <v>1335.620798342718</v>
+        <v>2891.784488442993</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2117.27467387779</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C44" t="n">
-        <v>1707.15008319106</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D44" t="n">
-        <v>1302.686153284121</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E44" t="n">
-        <v>888.3459378010175</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F44" t="n">
-        <v>467.315525754705</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>312.7727131152915</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K44" t="n">
-        <v>850.932214224331</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L44" t="n">
-        <v>850.932214224331</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M44" t="n">
-        <v>850.932214224331</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N44" t="n">
-        <v>1435.413521245312</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O44" t="n">
-        <v>2079.044377662417</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P44" t="n">
-        <v>2608.201075581568</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W44" t="n">
-        <v>2929.36208237686</v>
+        <v>3344.204600004997</v>
       </c>
       <c r="X44" t="n">
-        <v>2928.432526594189</v>
+        <v>2943.561202173949</v>
       </c>
       <c r="Y44" t="n">
-        <v>2527.495853542279</v>
+        <v>2542.624529122039</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>251.4000992101705</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K45" t="n">
-        <v>707.2063554754692</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L45" t="n">
-        <v>707.2063554754692</v>
+        <v>896.7025562821959</v>
       </c>
       <c r="M45" t="n">
-        <v>707.2063554754692</v>
+        <v>896.7025562821959</v>
       </c>
       <c r="N45" t="n">
-        <v>707.2063554754692</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="O45" t="n">
-        <v>1411.163446021364</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="P45" t="n">
-        <v>1972.869338509894</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q45" t="n">
-        <v>2075.516918135407</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>815.9169043787097</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C46" t="n">
-        <v>815.9169043787097</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D46" t="n">
-        <v>656.4222597016197</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E46" t="n">
-        <v>656.4222597016197</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F46" t="n">
-        <v>491.791133812211</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G46" t="n">
-        <v>324.5407427377544</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H46" t="n">
-        <v>174.9332875432111</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R46" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S46" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T46" t="n">
-        <v>1587.986138268387</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U46" t="n">
-        <v>1319.722267481071</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V46" t="n">
-        <v>1319.722267481071</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W46" t="n">
-        <v>1040.652602989945</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X46" t="n">
-        <v>1040.652602989945</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y46" t="n">
-        <v>815.9169043787097</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7987,19 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M2" t="n">
-        <v>672.9324644817731</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N2" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8055,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>382.3857379020729</v>
+        <v>243.993277752369</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N3" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>59.00019910540541</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>97.52733682206481</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>614.056826017163</v>
       </c>
       <c r="L5" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M5" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O5" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,16 +8294,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>599.8687123801584</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
@@ -8310,10 +8312,10 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>364.1002077779613</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8456,25 +8458,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>815.2746908024792</v>
+        <v>690.062948947329</v>
       </c>
       <c r="M8" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>117.8531087696411</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,16 +8537,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>679.867038877852</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M9" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8690,28 +8692,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>117.8531087696411</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q11" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,13 +8774,13 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>789.9048043326325</v>
+        <v>75.79096100447774</v>
       </c>
       <c r="N12" t="n">
-        <v>360.2236274426373</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
         <v>57.751479</v>
@@ -8787,7 +8789,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8927,28 +8929,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>247.36339640971</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>158.8194175469794</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,10 +9014,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>681.3167988054204</v>
+        <v>531.1743980747689</v>
       </c>
       <c r="N15" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
@@ -9179,13 +9181,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q17" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,16 +9248,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>529.7246381472005</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9483,16 +9485,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>601.0963663600584</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9723,16 +9725,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>841.9067396726143</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9954,22 +9956,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>429.3564034215989</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10194,7 +10196,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M30" t="n">
         <v>909.0562844399999</v>
@@ -10203,7 +10205,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10431,25 +10433,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476421</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>233.8802923605725</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,7 +10606,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10668,16 +10670,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10899,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11057,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>690.0629489473286</v>
       </c>
       <c r="M41" t="n">
-        <v>453.9640093582398</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
@@ -11081,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>660.231241700964</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>683.2974493636705</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>628.1510783507341</v>
+        <v>283.7489381988688</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
         <v>87.31214281472352</v>
@@ -11373,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>427.0037993558997</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>160.3770423689938</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,13 +22558,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>2.797283825083753</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22595,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>120.5010997202506</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>10.65886241359706</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22759,16 +22761,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22787,7 +22789,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>198.4079537928188</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22796,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,10 +22837,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>165.3848307702165</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22942,16 +22944,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>50.88211298447003</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>5.214916324194974</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -23018,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>12.38802852210813</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23075,19 +23077,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>88.96461183569875</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23179,25 +23181,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>70.43669735679175</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23233,16 +23235,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>55.3526305130045</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23309,7 +23311,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>77.99713514022147</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>167.3988484549473</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23425,16 +23427,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>134.9699070214184</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>93.31312169923888</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23501,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>41.09972507055562</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>298.3699971292496</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>55.3526305130045</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23899,7 +23901,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>13.65087375312422</v>
+        <v>135.21231289338</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23941,7 +23943,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -24017,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>88.57144222861982</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>187.9942390719855</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24139,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -24190,10 +24192,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176241</v>
       </c>
       <c r="Y22" t="n">
-        <v>80.63848936435443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24257,16 +24259,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>62.56142803888758</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>4.768618250844327</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24415,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>134.9699070214199</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24446,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>356.995880838973</v>
+        <v>88.57144222862041</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24461,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>151.2141028892982</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
@@ -24655,7 +24657,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -24664,7 +24666,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>208.6070786176241</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.09115682073005</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.066646240065</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -24898,13 +24900,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>223.0676163851324</v>
       </c>
       <c r="C32" t="n">
-        <v>45.5568195736796</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -25090,10 +25092,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>5.297014096775499</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557883893</v>
       </c>
     </row>
     <row r="35">
@@ -25160,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>32.28731256679839</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
     </row>
     <row r="36">
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>55.35263051300575</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V38" t="n">
-        <v>187.9942390719855</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>14.30144802244516</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>55.35263051300456</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>36.24993490507779</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>239.6175865041632</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>21.84416154190262</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>19.10615505383083</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25925,10 +25927,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>41.74734910992191</v>
       </c>
       <c r="X44" t="n">
-        <v>395.7167036278929</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,22 +26076,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>14.38893389989369</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>557020.6769750516</v>
+        <v>630072.5891392095</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>557020.6769750515</v>
+        <v>630072.5891392095</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>557020.6769750514</v>
+        <v>630072.5891392097</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>557020.6769750516</v>
+        <v>630072.5891392095</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>557020.6769750516</v>
+        <v>630072.5891392094</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>724366.4812678987</v>
+        <v>724366.4812678988</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>724366.4812678988</v>
+        <v>724366.4812678987</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>724366.4812678987</v>
+        <v>724366.4812678988</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>724366.4812678988</v>
+        <v>724366.4812678989</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>724366.4812678988</v>
+        <v>724366.4812678989</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>724366.4812678988</v>
+        <v>724366.4812678987</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>557020.6769750514</v>
+        <v>630072.5891392094</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>557020.6769750518</v>
+        <v>630072.5891392096</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233874.3930239015</v>
+        <v>264543.7418926174</v>
       </c>
       <c r="C2" t="n">
-        <v>233874.3930239016</v>
+        <v>264543.7418926175</v>
       </c>
       <c r="D2" t="n">
-        <v>233874.3930239015</v>
+        <v>264543.7418926174</v>
       </c>
       <c r="E2" t="n">
-        <v>233874.3930239014</v>
+        <v>264543.7418926174</v>
       </c>
       <c r="F2" t="n">
-        <v>233874.3930239016</v>
+        <v>264543.7418926175</v>
       </c>
       <c r="G2" t="n">
-        <v>304131.1009118486</v>
+        <v>304131.1009118484</v>
       </c>
       <c r="H2" t="n">
+        <v>304131.1009118483</v>
+      </c>
+      <c r="I2" t="n">
         <v>304131.1009118484</v>
-      </c>
-      <c r="I2" t="n">
-        <v>304131.1009118485</v>
       </c>
       <c r="J2" t="n">
         <v>304131.1009118485</v>
       </c>
       <c r="K2" t="n">
-        <v>304131.1009118485</v>
+        <v>304131.1009118484</v>
       </c>
       <c r="L2" t="n">
         <v>304131.1009118485</v>
       </c>
       <c r="M2" t="n">
-        <v>304131.1009118484</v>
+        <v>304131.1009118485</v>
       </c>
       <c r="N2" t="n">
         <v>304131.1009118485</v>
       </c>
       <c r="O2" t="n">
-        <v>233874.3930239014</v>
+        <v>264543.7418926174</v>
       </c>
       <c r="P2" t="n">
-        <v>233874.3930239016</v>
+        <v>264543.7418926175</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>308798.7416120438</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>66903.39635363268</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>241091.5930877367</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11847.07869616807</v>
+        <v>13426.58272155123</v>
       </c>
       <c r="C4" t="n">
-        <v>11847.07869616807</v>
+        <v>13426.58272155123</v>
       </c>
       <c r="D4" t="n">
-        <v>11847.07869616807</v>
+        <v>13426.58272155123</v>
       </c>
       <c r="E4" t="n">
-        <v>11847.07869616807</v>
+        <v>13426.58272155123</v>
       </c>
       <c r="F4" t="n">
-        <v>11847.07869616807</v>
+        <v>13426.58272155123</v>
       </c>
       <c r="G4" t="n">
         <v>15465.37373706398</v>
@@ -26454,10 +26456,10 @@
         <v>15465.37373706398</v>
       </c>
       <c r="O4" t="n">
-        <v>11847.07869616807</v>
+        <v>13426.58272155123</v>
       </c>
       <c r="P4" t="n">
-        <v>11847.07869616807</v>
+        <v>13426.58272155123</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274582</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274582</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274582</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-101550.7416074899</v>
+        <v>-147333.2795337234</v>
       </c>
       <c r="C6" t="n">
-        <v>143873.4106756052</v>
+        <v>161465.4620783204</v>
       </c>
       <c r="D6" t="n">
-        <v>143873.4106756051</v>
+        <v>161465.4620783204</v>
       </c>
       <c r="E6" t="n">
-        <v>177501.0106756051</v>
+        <v>195093.0620783204</v>
       </c>
       <c r="F6" t="n">
-        <v>177501.0106756053</v>
+        <v>195093.0620783204</v>
       </c>
       <c r="G6" t="n">
-        <v>99065.33249779734</v>
+        <v>150897.1205762784</v>
       </c>
       <c r="H6" t="n">
-        <v>217800.5169299112</v>
+        <v>217800.516929911</v>
       </c>
       <c r="I6" t="n">
-        <v>217800.5169299112</v>
+        <v>217800.5169299111</v>
       </c>
       <c r="J6" t="n">
-        <v>26188.01375955837</v>
+        <v>-23291.07615782548</v>
       </c>
       <c r="K6" t="n">
-        <v>217800.5169299112</v>
+        <v>217800.5169299111</v>
       </c>
       <c r="L6" t="n">
         <v>217800.5169299112</v>
@@ -26555,13 +26557,13 @@
         <v>217800.5169299112</v>
       </c>
       <c r="N6" t="n">
-        <v>217800.5169299113</v>
+        <v>217800.5169299112</v>
       </c>
       <c r="O6" t="n">
-        <v>177501.0106756051</v>
+        <v>195093.0620783203</v>
       </c>
       <c r="P6" t="n">
-        <v>177501.0106756053</v>
+        <v>195093.0620783204</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412141</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412141</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412141</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34705,19 +34707,19 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M2" t="n">
-        <v>579.6422400247276</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N2" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>326.2712140912238</v>
+        <v>187.87875394152</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N3" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>24.20374548875686</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>524.9204363439459</v>
       </c>
       <c r="L5" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M5" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O5" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>542.304428641741</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,10 +35032,10 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>309.8405727751575</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,25 +35178,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>719.7892927396343</v>
+        <v>594.5775508844841</v>
       </c>
       <c r="M8" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>24.20374548875697</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35255,16 +35257,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>623.7525150670029</v>
+        <v>333.185881862945</v>
       </c>
       <c r="M9" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>24.20374548875697</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,13 +35494,13 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>732.340520594215</v>
+        <v>18.22667726606031</v>
       </c>
       <c r="N12" t="n">
-        <v>307.0302340488873</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,7 +35509,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>158.2270067364929</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>65.17005426609525</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,10 +35734,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>623.7525150670029</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N15" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
@@ -35899,13 +35901,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q17" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>547.9029729663084</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>371.6049244215989</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="M30" t="n">
         <v>851.4920007015825</v>
@@ -36923,7 +36925,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37151,25 +37153,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>461.373944936793</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>176.1288133605725</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>594.5775508844837</v>
       </c>
       <c r="M41" t="n">
-        <v>360.6737849011943</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
@@ -37801,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>602.479762700964</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>590.3851586070512</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>534.50171506985</v>
+        <v>190.0995749179847</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8892755450506</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.6844238641551</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1166741.298846971</v>
+        <v>1164232.947121059</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5562152.400446145</v>
+        <v>5562152.400446147</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4028287.523710871</v>
+        <v>4028287.523710873</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7828284.986774279</v>
+        <v>7828284.98677428</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>305.0021285734754</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>149.0329547084132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -819,25 +819,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.76217398785631</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -898,13 +898,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>202.0113368150512</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>29.24191825468005</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -1113,16 +1113,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>77.72590661310004</v>
       </c>
       <c r="W7" t="n">
-        <v>271.0640515220194</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>63.34355216357865</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>388.0312620857619</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -1186,19 +1186,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -1350,16 +1350,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>183.3275768541988</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>118.7588392363241</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>141.9872840723883</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>28.01490760909629</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1590,13 +1590,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="14">
@@ -1615,16 +1615,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>369.0970882577166</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>176.9978693139703</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
@@ -1669,13 +1669,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1767,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>112.0700318511072</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>27.77250173713465</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>219.2279701699388</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>158.3449400448986</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128935</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2335,10 +2335,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>283.7777510779965</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -2535,16 +2535,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>136.1769805884533</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>311.8478483792496</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2575,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>18.16833582460248</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2806,10 +2806,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>343.2559819443612</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>2.590134858900842</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>27.35334490128935</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>183.0513514827122</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -3046,7 +3046,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>170.7879507721959</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.595211067239</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3334,7 +3334,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>39.93142548241784</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.4066896505621</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>145.0002589579186</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>118.2725368335364</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>369.8690329627668</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -3757,7 +3757,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>388.4731334821145</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>126.2672191006953</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -3957,16 +3957,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>332.8678621048292</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>338.1753487462612</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1605.11568008316</v>
+        <v>1804.414896657373</v>
       </c>
       <c r="C2" t="n">
-        <v>1194.99108939643</v>
+        <v>1394.290305970644</v>
       </c>
       <c r="D2" t="n">
-        <v>790.5271594894907</v>
+        <v>989.8263760637043</v>
       </c>
       <c r="E2" t="n">
-        <v>790.5271594894907</v>
+        <v>989.8263760637043</v>
       </c>
       <c r="F2" t="n">
-        <v>790.5271594894907</v>
+        <v>568.7959640173918</v>
       </c>
       <c r="G2" t="n">
-        <v>381.7988753823229</v>
+        <v>160.067679910224</v>
       </c>
       <c r="H2" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I2" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J2" t="n">
-        <v>73.71591722729714</v>
+        <v>261.9144963961027</v>
       </c>
       <c r="K2" t="n">
-        <v>611.8754183363367</v>
+        <v>800.0739975051422</v>
       </c>
       <c r="L2" t="n">
-        <v>1324.466818148575</v>
+        <v>1512.66539731738</v>
       </c>
       <c r="M2" t="n">
-        <v>2100.785409140329</v>
+        <v>2288.983988309134</v>
       </c>
       <c r="N2" t="n">
-        <v>2853.966425778947</v>
+        <v>3042.165004947752</v>
       </c>
       <c r="O2" t="n">
-        <v>3497.597282196052</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P2" t="n">
         <v>3685.795861364857</v>
@@ -4360,22 +4360,22 @@
         <v>3550.514786158958</v>
       </c>
       <c r="T2" t="n">
-        <v>3550.514786158958</v>
+        <v>3399.976448069652</v>
       </c>
       <c r="U2" t="n">
-        <v>3550.514786158958</v>
+        <v>3399.976448069652</v>
       </c>
       <c r="V2" t="n">
-        <v>3200.677231495439</v>
+        <v>3399.976448069652</v>
       </c>
       <c r="W2" t="n">
-        <v>2816.916930630607</v>
+        <v>3016.21614720482</v>
       </c>
       <c r="X2" t="n">
-        <v>2416.27353279956</v>
+        <v>2615.572749373773</v>
       </c>
       <c r="Y2" t="n">
-        <v>2015.33685974765</v>
+        <v>2214.636076321863</v>
       </c>
     </row>
     <row r="3">
@@ -4412,16 +4412,16 @@
         <v>73.71591722729714</v>
       </c>
       <c r="K3" t="n">
-        <v>529.5221734925958</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L3" t="n">
-        <v>715.5221398947006</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M3" t="n">
-        <v>1558.499220589267</v>
+        <v>916.6929979218638</v>
       </c>
       <c r="N3" t="n">
-        <v>1558.499220589267</v>
+        <v>916.6929979218638</v>
       </c>
       <c r="O3" t="n">
         <v>1558.499220589267</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1163.049767528434</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C4" t="n">
-        <v>991.9563950901502</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D4" t="n">
-        <v>832.4617504130601</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E4" t="n">
-        <v>671.5509352813797</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F4" t="n">
-        <v>506.9198093919709</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G4" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H4" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I4" t="n">
         <v>73.71591722729714</v>
@@ -4512,28 +4512,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R4" t="n">
-        <v>1603.114813848147</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S4" t="n">
-        <v>1603.114813848147</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T4" t="n">
-        <v>1603.114813848147</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U4" t="n">
-        <v>1603.114813848147</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V4" t="n">
-        <v>1603.114813848147</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="W4" t="n">
-        <v>1603.114813848147</v>
+        <v>724.4951843728934</v>
       </c>
       <c r="X4" t="n">
-        <v>1575.485172533713</v>
+        <v>486.1513222325768</v>
       </c>
       <c r="Y4" t="n">
-        <v>1350.749473922478</v>
+        <v>261.4156236213415</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1919.126944287828</v>
+        <v>1710.859464122716</v>
       </c>
       <c r="C5" t="n">
-        <v>1919.126944287828</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="D5" t="n">
-        <v>1715.075088919089</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="E5" t="n">
         <v>1300.734873435986</v>
@@ -4570,25 +4570,25 @@
         <v>73.71591722729714</v>
       </c>
       <c r="K5" t="n">
-        <v>593.3871492078035</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L5" t="n">
-        <v>1305.978549020042</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M5" t="n">
-        <v>2082.297140011795</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N5" t="n">
-        <v>2835.478156650413</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O5" t="n">
-        <v>2835.478156650413</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P5" t="n">
-        <v>3364.634854569565</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q5" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R5" t="n">
         <v>3685.795861364857</v>
@@ -4597,22 +4597,22 @@
         <v>3685.795861364857</v>
       </c>
       <c r="T5" t="n">
-        <v>3463.589377311716</v>
+        <v>3656.258570198514</v>
       </c>
       <c r="U5" t="n">
-        <v>3463.589377311716</v>
+        <v>3656.258570198514</v>
       </c>
       <c r="V5" t="n">
-        <v>3113.751822648197</v>
+        <v>3306.421015534994</v>
       </c>
       <c r="W5" t="n">
-        <v>2729.991521783365</v>
+        <v>2922.660714670163</v>
       </c>
       <c r="X5" t="n">
-        <v>2329.348123952318</v>
+        <v>2522.017316839115</v>
       </c>
       <c r="Y5" t="n">
-        <v>2329.348123952318</v>
+        <v>2121.080643787205</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2318.137507400892</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C6" t="n">
-        <v>2184.142436149837</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D6" t="n">
-        <v>2067.24527836923</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E6" t="n">
-        <v>1946.752462361558</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F6" t="n">
-        <v>1837.792582544062</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G6" t="n">
-        <v>1730.802469858401</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H6" t="n">
-        <v>1660.055256894117</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I6" t="n">
-        <v>1639.306665514357</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>1832.11952307699</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K6" t="n">
-        <v>1832.11952307699</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L6" t="n">
-        <v>1832.11952307699</v>
+        <v>867.1430369195659</v>
       </c>
       <c r="M6" t="n">
-        <v>2675.096603771557</v>
+        <v>867.1430369195659</v>
       </c>
       <c r="N6" t="n">
-        <v>2675.096603771557</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="O6" t="n">
-        <v>3379.053694317451</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="P6" t="n">
-        <v>3685.795861364857</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q6" t="n">
-        <v>3685.795861364857</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R6" t="n">
-        <v>3685.795861364857</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S6" t="n">
-        <v>3577.805851479166</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T6" t="n">
-        <v>3418.463987666174</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U6" t="n">
-        <v>3221.113176804393</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V6" t="n">
-        <v>3007.401649797427</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W6" t="n">
-        <v>2794.168481533755</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X6" t="n">
-        <v>2617.842499672648</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y6" t="n">
-        <v>2458.440540036478</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="7">
@@ -4749,28 +4749,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S7" t="n">
-        <v>1331.450327403457</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="T7" t="n">
-        <v>1091.901588380159</v>
+        <v>1177.17430670476</v>
       </c>
       <c r="U7" t="n">
-        <v>809.1034409262836</v>
+        <v>894.3761592508838</v>
       </c>
       <c r="V7" t="n">
-        <v>535.2176958658056</v>
+        <v>815.8651424699747</v>
       </c>
       <c r="W7" t="n">
-        <v>261.4156236213415</v>
+        <v>536.795477978849</v>
       </c>
       <c r="X7" t="n">
-        <v>261.4156236213415</v>
+        <v>298.4516158385325</v>
       </c>
       <c r="Y7" t="n">
-        <v>261.4156236213415</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2517.150449389417</v>
+        <v>1694.292981983343</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.025858702687</v>
+        <v>1284.168391296613</v>
       </c>
       <c r="D8" t="n">
-        <v>1715.075088919089</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="E8" t="n">
-        <v>1300.734873435986</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="F8" t="n">
         <v>879.7044613896738</v>
@@ -4804,28 +4804,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J8" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K8" t="n">
-        <v>73.71591722729714</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L8" t="n">
-        <v>662.3476926029365</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M8" t="n">
-        <v>1438.66628359469</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N8" t="n">
-        <v>2191.847300233308</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="O8" t="n">
-        <v>2835.478156650413</v>
+        <v>2998.601737025188</v>
       </c>
       <c r="P8" t="n">
-        <v>3364.634854569565</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q8" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R8" t="n">
         <v>3685.795861364857</v>
@@ -4834,22 +4834,22 @@
         <v>3550.514786158958</v>
       </c>
       <c r="T8" t="n">
-        <v>3328.308302105817</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U8" t="n">
-        <v>3328.308302105817</v>
+        <v>3293.454294418468</v>
       </c>
       <c r="V8" t="n">
-        <v>3328.308302105817</v>
+        <v>2943.616739754949</v>
       </c>
       <c r="W8" t="n">
-        <v>3328.308302105817</v>
+        <v>2559.856438890117</v>
       </c>
       <c r="X8" t="n">
-        <v>3328.308302105817</v>
+        <v>2159.21304105907</v>
       </c>
       <c r="Y8" t="n">
-        <v>2927.371629053907</v>
+        <v>1758.27636800716</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>73.71591722729714</v>
       </c>
       <c r="L9" t="n">
-        <v>403.5699402716127</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M9" t="n">
-        <v>1246.547020966179</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="N9" t="n">
-        <v>2120.205113077797</v>
+        <v>504.6976653593895</v>
       </c>
       <c r="O9" t="n">
-        <v>2120.205113077797</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P9" t="n">
-        <v>2120.205113077797</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q9" t="n">
         <v>2120.205113077797</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73.71591722729714</v>
+        <v>244.8092896655806</v>
       </c>
       <c r="C10" t="n">
         <v>73.71591722729714</v>
@@ -4986,28 +4986,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R10" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S10" t="n">
-        <v>1331.450327403457</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T10" t="n">
-        <v>1091.901588380159</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U10" t="n">
-        <v>809.1034409262836</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V10" t="n">
-        <v>535.2176958658056</v>
+        <v>895.5885568111769</v>
       </c>
       <c r="W10" t="n">
-        <v>256.1480313746799</v>
+        <v>895.5885568111769</v>
       </c>
       <c r="X10" t="n">
-        <v>73.71591722729714</v>
+        <v>657.2446946708603</v>
       </c>
       <c r="Y10" t="n">
-        <v>73.71591722729714</v>
+        <v>432.508996059625</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1723.675065350382</v>
+        <v>2338.713535611511</v>
       </c>
       <c r="C11" t="n">
-        <v>1313.550474663652</v>
+        <v>1928.588944924782</v>
       </c>
       <c r="D11" t="n">
-        <v>909.0865447567129</v>
+        <v>1524.125015017842</v>
       </c>
       <c r="E11" t="n">
-        <v>494.7463292736096</v>
+        <v>1109.784799534739</v>
       </c>
       <c r="F11" t="n">
-        <v>73.71591722729714</v>
+        <v>688.7543874884263</v>
       </c>
       <c r="G11" t="n">
-        <v>73.71591722729714</v>
+        <v>280.0261033812585</v>
       </c>
       <c r="H11" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I11" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K11" t="n">
-        <v>611.8754183363367</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="L11" t="n">
-        <v>1324.466818148575</v>
+        <v>1040.492788507289</v>
       </c>
       <c r="M11" t="n">
-        <v>2100.785409140329</v>
+        <v>1816.811379499043</v>
       </c>
       <c r="N11" t="n">
-        <v>2853.966425778947</v>
+        <v>2569.992396137661</v>
       </c>
       <c r="O11" t="n">
-        <v>3497.597282196052</v>
+        <v>3213.623252554766</v>
       </c>
       <c r="P11" t="n">
         <v>3685.795861364857</v>
@@ -5068,25 +5068,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T11" t="n">
-        <v>3542.374362301839</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U11" t="n">
-        <v>3285.313870561349</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="V11" t="n">
-        <v>2935.476315897829</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="W11" t="n">
-        <v>2935.476315897829</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="X11" t="n">
-        <v>2534.832918066782</v>
+        <v>3149.871388327911</v>
       </c>
       <c r="Y11" t="n">
-        <v>2133.896245014872</v>
+        <v>2748.934715276001</v>
       </c>
     </row>
     <row r="12">
@@ -5120,19 +5120,19 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J12" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K12" t="n">
-        <v>529.5221734925958</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="L12" t="n">
-        <v>1190.610345411884</v>
+        <v>504.6976653593895</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.654755905284</v>
+        <v>504.6976653593895</v>
       </c>
       <c r="N12" t="n">
-        <v>1208.654755905284</v>
+        <v>504.6976653593895</v>
       </c>
       <c r="O12" t="n">
         <v>1208.654755905284</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>535.2176958658056</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C13" t="n">
-        <v>535.2176958658056</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D13" t="n">
-        <v>535.2176958658056</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E13" t="n">
-        <v>535.2176958658056</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F13" t="n">
-        <v>506.9198093919709</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G13" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H13" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I13" t="n">
         <v>73.71591722729714</v>
@@ -5223,28 +5223,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S13" t="n">
-        <v>1331.450327403457</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T13" t="n">
-        <v>1091.901588380159</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U13" t="n">
-        <v>809.1034409262836</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V13" t="n">
-        <v>535.2176958658056</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W13" t="n">
-        <v>535.2176958658056</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X13" t="n">
-        <v>535.2176958658056</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y13" t="n">
-        <v>535.2176958658056</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1261.129779495428</v>
+        <v>2311.189076037318</v>
       </c>
       <c r="C14" t="n">
-        <v>851.0051888086979</v>
+        <v>1901.064485350588</v>
       </c>
       <c r="D14" t="n">
-        <v>446.5412589017584</v>
+        <v>1496.600555443649</v>
       </c>
       <c r="E14" t="n">
-        <v>73.71591722729714</v>
+        <v>1082.260339960545</v>
       </c>
       <c r="F14" t="n">
-        <v>73.71591722729714</v>
+        <v>661.229927914233</v>
       </c>
       <c r="G14" t="n">
-        <v>73.71591722729714</v>
+        <v>252.5016438070652</v>
       </c>
       <c r="H14" t="n">
         <v>73.71591722729714</v>
@@ -5278,52 +5278,52 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J14" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K14" t="n">
-        <v>230.3606538964251</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="L14" t="n">
-        <v>942.9520537086631</v>
+        <v>662.3476926029365</v>
       </c>
       <c r="M14" t="n">
-        <v>1719.270644700417</v>
+        <v>1438.66628359469</v>
       </c>
       <c r="N14" t="n">
-        <v>2472.451661339035</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="O14" t="n">
-        <v>3116.08251775614</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P14" t="n">
-        <v>3645.239215675292</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q14" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R14" t="n">
         <v>3685.795861364857</v>
       </c>
       <c r="S14" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T14" t="n">
-        <v>3463.589377311715</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U14" t="n">
-        <v>3206.528885571226</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V14" t="n">
-        <v>2856.691330907706</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W14" t="n">
-        <v>2472.931030042875</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="X14" t="n">
-        <v>2072.287632211827</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="Y14" t="n">
-        <v>1671.350959159917</v>
+        <v>2721.410255701808</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J15" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K15" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="L15" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="M15" t="n">
-        <v>542.5899304202851</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="N15" t="n">
-        <v>1416.248022531903</v>
+        <v>1140.186866901548</v>
       </c>
       <c r="O15" t="n">
-        <v>2120.205113077797</v>
+        <v>1844.143957447443</v>
       </c>
       <c r="P15" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="Q15" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R15" t="n">
         <v>2120.205113077797</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.71591722729714</v>
+        <v>674.57382048538</v>
       </c>
       <c r="C16" t="n">
-        <v>73.71591722729714</v>
+        <v>561.3717681105243</v>
       </c>
       <c r="D16" t="n">
-        <v>73.71591722729714</v>
+        <v>401.8771234334342</v>
       </c>
       <c r="E16" t="n">
-        <v>73.71591722729714</v>
+        <v>240.9663083017537</v>
       </c>
       <c r="F16" t="n">
-        <v>73.71591722729714</v>
+        <v>240.9663083017537</v>
       </c>
       <c r="G16" t="n">
         <v>73.71591722729714</v>
@@ -5460,28 +5460,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S16" t="n">
-        <v>1331.450327403457</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="T16" t="n">
-        <v>1091.901588380159</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="U16" t="n">
-        <v>809.1034409262836</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="V16" t="n">
-        <v>535.2176958658056</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="W16" t="n">
-        <v>256.1480313746799</v>
+        <v>1137.653381236932</v>
       </c>
       <c r="X16" t="n">
-        <v>73.71591722729714</v>
+        <v>899.3095190966153</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.71591722729714</v>
+        <v>674.57382048538</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>121.2967297483346</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>121.2967297483346</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>121.2967297483346</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>121.2967297483346</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
         <v>93.2436976906228</v>
@@ -5718,7 +5718,7 @@
         <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>308.996436142379</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H20" t="n">
         <v>179.5954603735497</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4304.697325272099</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4222.119838211426</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>4662.18488453114</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>4662.18488453114</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>4634.555243216706</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>4409.819544605471</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2549.191389976085</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C23" t="n">
-        <v>2139.066799289355</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V23" t="n">
-        <v>3760.992640523532</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W23" t="n">
-        <v>3760.992640523532</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X23" t="n">
-        <v>3360.349242692484</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y23" t="n">
-        <v>2959.412569640574</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N24" t="n">
-        <v>874.0699105066985</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O24" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>3868.173511609275</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>3730.621005964372</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>3730.621005964372</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>3730.621005964372</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2459.725286714852</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
-        <v>2049.600696028122</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6259,19 +6259,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4405.12439279065</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V26" t="n">
-        <v>4055.286838127131</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3671.526537262299</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>3270.883139431251</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2869.946466379341</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6305,19 +6305,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>423.0977207349383</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>1266.074801429505</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N27" t="n">
-        <v>2139.732893541123</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4069.378320141428</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4576.912166206539</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>4294.114018752663</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>4294.114018752663</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>4294.114018752663</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>4294.114018752663</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>4069.378320141428</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
         <v>93.2436976906228</v>
@@ -6463,7 +6463,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
         <v>885.5886702674165</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>423.0977207349383</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M30" t="n">
-        <v>1266.074801429505</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4222.119838211426</v>
+        <v>410.0985766118484</v>
       </c>
       <c r="C31" t="n">
-        <v>4051.026465773143</v>
+        <v>410.0985766118484</v>
       </c>
       <c r="D31" t="n">
-        <v>3891.531821096053</v>
+        <v>410.0985766118484</v>
       </c>
       <c r="E31" t="n">
-        <v>3730.621005964372</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="F31" t="n">
-        <v>3565.989880074963</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G31" t="n">
-        <v>3398.739489000507</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4634.555243216706</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4634.555243216706</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T31" t="n">
-        <v>4634.555243216706</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U31" t="n">
-        <v>4634.555243216706</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V31" t="n">
-        <v>4634.555243216706</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="W31" t="n">
-        <v>4634.555243216706</v>
+        <v>634.8342752230838</v>
       </c>
       <c r="X31" t="n">
-        <v>4634.555243216706</v>
+        <v>634.8342752230838</v>
       </c>
       <c r="Y31" t="n">
-        <v>4409.819544605471</v>
+        <v>410.0985766118484</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2462.839627293158</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C32" t="n">
-        <v>2052.715036606428</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D32" t="n">
-        <v>1648.251106699488</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E32" t="n">
-        <v>1233.910891216385</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F32" t="n">
-        <v>812.8804791700727</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>265.7567792786995</v>
       </c>
       <c r="H32" t="n">
         <v>93.2436976906228</v>
@@ -6700,7 +6700,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
         <v>885.5886702674165</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4439.978400477999</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U32" t="n">
-        <v>4182.917908737509</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V32" t="n">
-        <v>3833.080354073989</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W32" t="n">
-        <v>3449.320053209158</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X32" t="n">
-        <v>3048.67665537811</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y32" t="n">
-        <v>2647.7399823262</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C33" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D33" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E33" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>2808.508546243273</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>3264.314802508572</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>3721.075007995997</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>3721.075007995997</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>3721.075007995997</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>3721.075007995997</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>4282.780900484527</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
-        <v>4632.62536516851</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S33" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T33" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U33" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V33" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W33" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X33" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y33" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4422.636145507842</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>4139.837998053967</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>3865.952252993488</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>3586.882588502363</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>3348.538726362046</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6964,22 +6964,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
         <v>2873.060806957647</v>
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7125,19 +7125,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1383.093855288175</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U37" t="n">
-        <v>1100.295707834299</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V37" t="n">
-        <v>826.4099627738212</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W37" t="n">
-        <v>547.3402982826956</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X37" t="n">
-        <v>308.996436142379</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y37" t="n">
         <v>93.2436976906228</v>
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C38" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E38" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1521950629049</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
-        <v>93.24369769062287</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7207,19 +7207,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4408.238733368956</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V38" t="n">
-        <v>4058.401178705436</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W38" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X38" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y38" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="39">
@@ -7253,16 +7253,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>1228.182536368609</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.182536368609</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N39" t="n">
         <v>1228.182536368609</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>837.543623783007</v>
+        <v>568.3930939062554</v>
       </c>
       <c r="C40" t="n">
-        <v>837.543623783007</v>
+        <v>568.3930939062554</v>
       </c>
       <c r="D40" t="n">
-        <v>837.543623783007</v>
+        <v>568.3930939062554</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1503.175385388709</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.429368843485</v>
+        <v>1263.626646365411</v>
       </c>
       <c r="U40" t="n">
-        <v>1111.429368843485</v>
+        <v>980.8284989115351</v>
       </c>
       <c r="V40" t="n">
-        <v>837.543623783007</v>
+        <v>980.8284989115351</v>
       </c>
       <c r="W40" t="n">
-        <v>837.543623783007</v>
+        <v>980.8284989115351</v>
       </c>
       <c r="X40" t="n">
-        <v>837.543623783007</v>
+        <v>980.8284989115351</v>
       </c>
       <c r="Y40" t="n">
-        <v>837.543623783007</v>
+        <v>756.0928003002998</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2443.311846829832</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C41" t="n">
-        <v>2033.187256143102</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D41" t="n">
-        <v>1628.723326236163</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E41" t="n">
-        <v>1214.38311075306</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F41" t="n">
-        <v>793.352698706747</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G41" t="n">
-        <v>384.6244145995792</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H41" t="n">
         <v>73.71591722729714</v>
@@ -7411,52 +7411,52 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J41" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K41" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="L41" t="n">
-        <v>662.347692602936</v>
+        <v>1040.492788507289</v>
       </c>
       <c r="M41" t="n">
-        <v>1438.66628359469</v>
+        <v>1816.811379499043</v>
       </c>
       <c r="N41" t="n">
-        <v>2191.847300233308</v>
+        <v>2569.992396137661</v>
       </c>
       <c r="O41" t="n">
-        <v>2835.478156650413</v>
+        <v>3116.082517756141</v>
       </c>
       <c r="P41" t="n">
-        <v>3364.634854569565</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q41" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R41" t="n">
         <v>3685.795861364857</v>
       </c>
       <c r="S41" t="n">
-        <v>3550.514786158958</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T41" t="n">
-        <v>3550.514786158958</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U41" t="n">
-        <v>3550.514786158958</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V41" t="n">
-        <v>3200.677231495438</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W41" t="n">
-        <v>2816.916930630607</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="X41" t="n">
-        <v>2816.916930630607</v>
+        <v>2943.561202173949</v>
       </c>
       <c r="Y41" t="n">
-        <v>2816.916930630607</v>
+        <v>2542.624529122039</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2318.137507400891</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C42" t="n">
-        <v>2184.142436149837</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D42" t="n">
-        <v>2067.245278369229</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E42" t="n">
-        <v>1946.752462361557</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F42" t="n">
-        <v>1837.792582544062</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G42" t="n">
-        <v>1730.8024698584</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H42" t="n">
-        <v>1660.055256894116</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I42" t="n">
-        <v>1639.306665514357</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J42" t="n">
-        <v>1832.11952307699</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K42" t="n">
-        <v>2287.925779342288</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L42" t="n">
-        <v>2744.685984829713</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="M42" t="n">
-        <v>2744.685984829713</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="N42" t="n">
-        <v>2744.685984829713</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="O42" t="n">
-        <v>2744.685984829713</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P42" t="n">
-        <v>3306.391877318243</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q42" t="n">
-        <v>3656.236342002227</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R42" t="n">
-        <v>3685.795861364857</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S42" t="n">
-        <v>3577.805851479166</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T42" t="n">
-        <v>3418.463987666174</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U42" t="n">
-        <v>3221.113176804392</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V42" t="n">
-        <v>3007.401649797426</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W42" t="n">
-        <v>2794.168481533755</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X42" t="n">
-        <v>2617.842499672648</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y42" t="n">
-        <v>2458.440540036478</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2891.784488442993</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C43" t="n">
-        <v>2720.691116004709</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D43" t="n">
-        <v>2561.196471327619</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E43" t="n">
-        <v>2400.285656195939</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F43" t="n">
-        <v>2400.285656195939</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G43" t="n">
-        <v>2400.285656195939</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H43" t="n">
-        <v>2272.743010639681</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I43" t="n">
-        <v>2156.396964744007</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J43" t="n">
-        <v>2170.479514149218</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K43" t="n">
-        <v>2325.031841871456</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L43" t="n">
-        <v>2584.928942151516</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M43" t="n">
-        <v>2874.192998592009</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N43" t="n">
-        <v>3155.031780986259</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O43" t="n">
-        <v>3414.592391312734</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P43" t="n">
-        <v>3620.267831562346</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q43" t="n">
-        <v>3685.795861364857</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R43" t="n">
-        <v>3600.523143040256</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S43" t="n">
-        <v>3414.131374920167</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T43" t="n">
-        <v>3174.582635896869</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U43" t="n">
-        <v>2891.784488442993</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V43" t="n">
-        <v>2891.784488442993</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W43" t="n">
-        <v>2891.784488442993</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X43" t="n">
-        <v>2891.784488442993</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y43" t="n">
-        <v>2891.784488442993</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2132.40334945755</v>
+        <v>1740.396755289059</v>
       </c>
       <c r="C44" t="n">
-        <v>1722.27875877082</v>
+        <v>1740.396755289059</v>
       </c>
       <c r="D44" t="n">
-        <v>1317.814828863881</v>
+        <v>1404.166591546807</v>
       </c>
       <c r="E44" t="n">
-        <v>903.4746133807774</v>
+        <v>989.8263760637043</v>
       </c>
       <c r="F44" t="n">
-        <v>482.444201334465</v>
+        <v>568.7959640173918</v>
       </c>
       <c r="G44" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="H44" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I44" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K44" t="n">
-        <v>611.8754183363367</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L44" t="n">
-        <v>1324.466818148575</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M44" t="n">
-        <v>2100.785409140329</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N44" t="n">
-        <v>2853.966425778947</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="O44" t="n">
-        <v>3497.597282196052</v>
+        <v>2998.601737025188</v>
       </c>
       <c r="P44" t="n">
-        <v>3685.795861364857</v>
+        <v>3527.75843494434</v>
       </c>
       <c r="Q44" t="n">
         <v>3685.795861364857</v>
@@ -7684,16 +7684,16 @@
         <v>3685.795861364857</v>
       </c>
       <c r="V44" t="n">
-        <v>3685.795861364857</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W44" t="n">
-        <v>3344.204600004997</v>
+        <v>2952.198005836506</v>
       </c>
       <c r="X44" t="n">
-        <v>2943.561202173949</v>
+        <v>2551.554608005459</v>
       </c>
       <c r="Y44" t="n">
-        <v>2542.624529122039</v>
+        <v>2150.617934953549</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K45" t="n">
-        <v>529.5221734925958</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L45" t="n">
-        <v>896.7025562821959</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="M45" t="n">
-        <v>896.7025562821959</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="N45" t="n">
-        <v>1770.360648393814</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="O45" t="n">
-        <v>1770.360648393814</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P45" t="n">
         <v>1770.360648393814</v>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>263.4231662512933</v>
       </c>
       <c r="K2" t="n">
         <v>632.7318453389136</v>
@@ -7996,7 +7996,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P2" t="n">
-        <v>283.7489381988693</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
@@ -8060,10 +8060,10 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>243.993277752369</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>909.0562844399999</v>
@@ -8072,7 +8072,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>706.040592805458</v>
       </c>
       <c r="P3" t="n">
         <v>621.6393243851574</v>
@@ -8218,7 +8218,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>614.056826017163</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L5" t="n">
         <v>815.2746908024792</v>
@@ -8230,16 +8230,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
-        <v>628.1510783507341</v>
+        <v>242.782629421531</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,28 +8297,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>202.3852368051286</v>
       </c>
       <c r="M6" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O6" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>364.1002077779613</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>690.062948947329</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>853.701196452193</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>628.1510783507341</v>
+        <v>422.413476265543</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8537,22 +8537,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>389.300405673794</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>935.6763147186165</v>
+        <v>488.5284925170756</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
@@ -8707,7 +8707,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>283.7489381988693</v>
+        <v>570.5913923819861</v>
       </c>
       <c r="Q11" t="n">
         <v>90.03380439915205</v>
@@ -8768,22 +8768,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>296.6891607496966</v>
       </c>
       <c r="M12" t="n">
-        <v>75.79096100447774</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>247.36339640971</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>815.2746908024792</v>
+        <v>433.3099474647489</v>
       </c>
       <c r="M14" t="n">
         <v>877.4504173780091</v>
@@ -8947,10 +8947,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>55.82578278461539</v>
@@ -9014,7 +9014,7 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>531.1743980747689</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>935.6763147186165</v>
@@ -9023,13 +9023,13 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>303.2511867883843</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
         <v>414.4388617681339</v>
@@ -9242,7 +9242,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>55.82578278461539</v>
@@ -9251,19 +9251,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>293.7680303325975</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9412,7 +9412,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N20" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O20" t="n">
         <v>743.321953824879</v>
@@ -9479,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>341.4408586839378</v>
       </c>
       <c r="N21" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9716,10 +9716,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
@@ -9728,16 +9728,16 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>841.9067396726143</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P24" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9953,22 +9953,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>389.300405673794</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>90.72066712971599</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>389.300405673794</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10433,7 +10433,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>517.4884687476421</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
@@ -10451,7 +10451,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,19 +10901,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>547.3465691139345</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>531.8304305237483</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>690.0629489473286</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11074,16 +11074,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>743.321953824879</v>
+        <v>644.7959590787925</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>517.4884687476416</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
@@ -11162,7 +11162,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11308,16 +11308,16 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>853.701196452193</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>283.7489381988688</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>249.6675684602808</v>
       </c>
       <c r="R44" t="n">
         <v>87.31214281472352</v>
@@ -11375,25 +11375,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>427.0037993558997</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
@@ -22558,16 +22558,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.797283825083753</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,13 +22600,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>70.95146450419654</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22707,25 +22707,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>192.516793858358</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22786,13 +22786,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>198.4079537928188</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22837,7 +22837,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>190.7425009579297</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23001,16 +23001,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>193.4209809967732</v>
       </c>
       <c r="W7" t="n">
-        <v>5.214916324194974</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>342.7754157042659</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>12.38802852210813</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23074,19 +23074,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23238,16 +23238,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>87.81931075567445</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>55.3526305130045</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>189.040573162235</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>77.99713514022147</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -23427,16 +23427,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>134.9699070214184</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="14">
@@ -23503,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>41.09972507055562</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>130.8015430845888</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23655,19 +23655,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>57.31240686279349</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.3526305130045</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23901,7 +23901,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>135.21231289338</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>88.57144222862041</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>187.9942390719855</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176241</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>62.56142803888758</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>134.9699070214199</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>88.57144222862041</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>151.2141028892982</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>156.7115721214629</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.066646240065</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>223.0676163851324</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>137.0114616263633</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.893130557883893</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>356.9958808389729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25365,7 +25365,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.893130557884348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>3.083197172522915</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25557,19 +25557,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>14.30144802244516</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>66.25531360535246</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -25617,7 +25617,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>36.24993490507779</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>8.16383037062252</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,13 +25788,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -25803,10 +25803,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>21.84416154190262</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>67.55142850304082</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,10 +25924,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>41.74734910992191</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>630072.5891392095</v>
+        <v>630072.5891392097</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>630072.5891392095</v>
+        <v>630072.5891392096</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>630072.5891392097</v>
+        <v>630072.5891392096</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>630072.5891392095</v>
+        <v>630072.5891392097</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>630072.5891392094</v>
+        <v>630072.5891392095</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>724366.4812678988</v>
+        <v>724366.4812678989</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>724366.4812678988</v>
+        <v>724366.4812678989</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>724366.4812678987</v>
+        <v>724366.4812678989</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>724366.4812678988</v>
+        <v>724366.4812678989</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>724366.4812678989</v>
+        <v>724366.4812678988</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>630072.5891392094</v>
+        <v>630072.5891392096</v>
       </c>
     </row>
     <row r="16">
@@ -26322,25 +26322,25 @@
         <v>264543.7418926174</v>
       </c>
       <c r="E2" t="n">
-        <v>264543.7418926174</v>
+        <v>264543.7418926175</v>
       </c>
       <c r="F2" t="n">
         <v>264543.7418926175</v>
       </c>
       <c r="G2" t="n">
+        <v>304131.1009118485</v>
+      </c>
+      <c r="H2" t="n">
+        <v>304131.1009118485</v>
+      </c>
+      <c r="I2" t="n">
+        <v>304131.1009118485</v>
+      </c>
+      <c r="J2" t="n">
         <v>304131.1009118484</v>
       </c>
-      <c r="H2" t="n">
-        <v>304131.1009118483</v>
-      </c>
-      <c r="I2" t="n">
-        <v>304131.1009118484</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>304131.1009118485</v>
-      </c>
-      <c r="K2" t="n">
-        <v>304131.1009118484</v>
       </c>
       <c r="L2" t="n">
         <v>304131.1009118485</v>
@@ -26349,13 +26349,13 @@
         <v>304131.1009118485</v>
       </c>
       <c r="N2" t="n">
-        <v>304131.1009118485</v>
+        <v>304131.1009118484</v>
       </c>
       <c r="O2" t="n">
+        <v>264543.7418926175</v>
+      </c>
+      <c r="P2" t="n">
         <v>264543.7418926174</v>
-      </c>
-      <c r="P2" t="n">
-        <v>264543.7418926175</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>66903.39635363268</v>
+        <v>66903.39635363265</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13426.58272155123</v>
+        <v>13426.58272155124</v>
       </c>
       <c r="C4" t="n">
         <v>13426.58272155123</v>
@@ -26426,7 +26426,7 @@
         <v>13426.58272155123</v>
       </c>
       <c r="E4" t="n">
-        <v>13426.58272155123</v>
+        <v>13426.58272155124</v>
       </c>
       <c r="F4" t="n">
         <v>13426.58272155123</v>
@@ -26481,7 +26481,7 @@
         <v>56024.09709274583</v>
       </c>
       <c r="F5" t="n">
-        <v>56024.09709274582</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26508,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>56024.09709274582</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="P5" t="n">
-        <v>56024.09709274582</v>
+        <v>56024.09709274583</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-147333.2795337234</v>
+        <v>-147702.3713597974</v>
       </c>
       <c r="C6" t="n">
-        <v>161465.4620783204</v>
+        <v>161096.3702522464</v>
       </c>
       <c r="D6" t="n">
-        <v>161465.4620783204</v>
+        <v>161096.3702522464</v>
       </c>
       <c r="E6" t="n">
-        <v>195093.0620783204</v>
+        <v>194723.9702522464</v>
       </c>
       <c r="F6" t="n">
-        <v>195093.0620783204</v>
+        <v>194723.9702522464</v>
       </c>
       <c r="G6" t="n">
-        <v>150897.1205762784</v>
+        <v>150716.5399836295</v>
       </c>
       <c r="H6" t="n">
-        <v>217800.516929911</v>
+        <v>217619.9363372621</v>
       </c>
       <c r="I6" t="n">
-        <v>217800.5169299111</v>
+        <v>217619.9363372622</v>
       </c>
       <c r="J6" t="n">
-        <v>-23291.07615782548</v>
+        <v>-23471.65675047464</v>
       </c>
       <c r="K6" t="n">
-        <v>217800.5169299111</v>
+        <v>217619.9363372621</v>
       </c>
       <c r="L6" t="n">
-        <v>217800.5169299112</v>
+        <v>217619.9363372621</v>
       </c>
       <c r="M6" t="n">
-        <v>217800.5169299112</v>
+        <v>217619.9363372621</v>
       </c>
       <c r="N6" t="n">
-        <v>217800.5169299112</v>
+        <v>217619.9363372621</v>
       </c>
       <c r="O6" t="n">
-        <v>195093.0620783203</v>
+        <v>194723.9702522464</v>
       </c>
       <c r="P6" t="n">
-        <v>195093.0620783204</v>
+        <v>194723.9702522463</v>
       </c>
     </row>
   </sheetData>
@@ -26801,7 +26801,7 @@
         <v>921.4489653412143</v>
       </c>
       <c r="F4" t="n">
-        <v>921.4489653412141</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26828,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>921.4489653412141</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="P4" t="n">
-        <v>921.4489653412141</v>
+        <v>921.4489653412143</v>
       </c>
     </row>
   </sheetData>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>190.0995749179854</v>
       </c>
       <c r="K2" t="n">
         <v>543.5954556656965</v>
@@ -34716,7 +34716,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P2" t="n">
-        <v>190.0995749179851</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>187.87875394152</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>851.4920007015825</v>
@@ -34792,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>648.289113805458</v>
       </c>
       <c r="P3" t="n">
         <v>567.3796893823536</v>
@@ -34938,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>524.9204363439459</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L5" t="n">
         <v>719.7892927396343</v>
@@ -34950,16 +34950,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
-        <v>534.50171506985</v>
+        <v>149.1332661406468</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>146.2707129942796</v>
       </c>
       <c r="M6" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O6" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>309.8405727751575</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>594.5775508844841</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
         <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>760.7889056955737</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>534.50171506985</v>
+        <v>328.7641129846588</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>333.185881862945</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>882.4829213248665</v>
+        <v>435.3350991233256</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
@@ -35427,7 +35427,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>190.0995749179851</v>
+        <v>476.9420291011019</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>240.5746369388476</v>
       </c>
       <c r="M12" t="n">
-        <v>18.22667726606031</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>158.2270067364929</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>719.7892927396343</v>
+        <v>337.8245494019041</v>
       </c>
       <c r="M14" t="n">
         <v>784.1601929209636</v>
@@ -35667,10 +35667,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,7 +35734,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>882.4829213248665</v>
@@ -35743,13 +35743,13 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>248.9915517855806</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35901,7 +35901,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
         <v>324.4050573689818</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>240.5746369388475</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N20" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O20" t="n">
         <v>650.1321781990958</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>283.8765749455204</v>
       </c>
       <c r="N21" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>788.7133462788644</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P24" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>333.1858818629449</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>333.1858818629449</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>461.373944936793</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>491.2320453030855</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>594.5775508844837</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
         <v>784.1601929209636</v>
@@ -37794,16 +37794,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>650.1321781990958</v>
+        <v>551.6061834530094</v>
       </c>
       <c r="P41" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>461.3739449367926</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38028,16 +38028,16 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>760.7889056955737</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>190.0995749179847</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>159.6337640611288</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8892755450506</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>
